--- a/Data/FCProbeCoords.xlsx
+++ b/Data/FCProbeCoords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SetShiftBehaviorModeling\Paper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180B8DE0-6E84-4072-8ADC-2EF4B15E33A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260D2220-46DA-4B18-BE3A-B4B8343A7577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E975375-1C41-4411-80FA-53DD34540B36}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E975375-1C41-4411-80FA-53DD34540B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Rat ID</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>FC35</t>
+  </si>
+  <si>
+    <t>FC32</t>
   </si>
 </sst>
 </file>
@@ -121,10 +124,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9992D8D1-9039-40ED-A33B-9BE0FCF7BEE5}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +479,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
@@ -503,7 +505,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
@@ -529,7 +531,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
@@ -555,7 +557,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -579,38 +581,55 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
       <c r="D6">
         <v>-2</v>
       </c>
       <c r="E6">
-        <v>5.85</v>
+        <v>5.4</v>
       </c>
       <c r="F6">
-        <v>1.2</v>
+        <v>2.56</v>
       </c>
       <c r="G6">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="H6">
-        <v>5.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1.44</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>5.85</v>
+      </c>
+      <c r="F7">
+        <v>1.2</v>
+      </c>
+      <c r="G7">
+        <v>2.8</v>
+      </c>
+      <c r="H7">
+        <v>5.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
